--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,18 +49,15 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -76,85 +73,88 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>join</t>
+    <t>care</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>share</t>
   </si>
   <si>
     <t>online</t>
@@ -169,19 +169,16 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -547,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -608,38 +605,38 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="L3">
         <v>32</v>
       </c>
-      <c r="D3">
+      <c r="M3">
         <v>32</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>33</v>
-      </c>
-      <c r="M3">
-        <v>33</v>
-      </c>
       <c r="N3">
         <v>1</v>
       </c>
@@ -650,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -658,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -676,19 +673,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -700,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -708,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.702054794520548</v>
+        <v>0.6952054794520548</v>
       </c>
       <c r="C5">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D5">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -750,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -758,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4533333333333333</v>
+        <v>0.436241610738255</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -776,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -808,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4161073825503356</v>
+        <v>0.3624031007751938</v>
       </c>
       <c r="C7">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c r="D7">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -826,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>87</v>
+        <v>329</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -850,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -858,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3798449612403101</v>
+        <v>0.36</v>
       </c>
       <c r="C8">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>320</v>
+        <v>48</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8414634146341463</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L8">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -900,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -908,13 +905,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3506493506493507</v>
+        <v>0.3227513227513227</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -926,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8297872340425532</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3174603174603174</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C10">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -976,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10">
         <v>0.828125</v>
@@ -1008,13 +1005,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2222222222222222</v>
+        <v>0.1152815013404826</v>
       </c>
       <c r="C11">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D11">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1026,69 +1023,45 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>196</v>
+        <v>330</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L11">
+        <v>47</v>
+      </c>
+      <c r="M11">
+        <v>47</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K11">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="L11">
-        <v>48</v>
-      </c>
-      <c r="M11">
-        <v>48</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1206434316353887</v>
-      </c>
-      <c r="C12">
-        <v>45</v>
-      </c>
-      <c r="D12">
-        <v>45</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>328</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K12">
-        <v>0.7916666666666666</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1100,21 +1073,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7816901408450704</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L13">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="M13">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1126,21 +1099,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7619047619047619</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1152,21 +1125,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7450980392156863</v>
+        <v>0.8</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1178,21 +1151,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7358490566037735</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L16">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="M16">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1204,21 +1177,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.723404255319149</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L17">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="M17">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1230,21 +1203,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.69375</v>
+        <v>0.73125</v>
       </c>
       <c r="L18">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="M18">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1256,21 +1229,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1282,21 +1255,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6214099216710183</v>
+        <v>0.66</v>
       </c>
       <c r="L20">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1308,21 +1281,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>145</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.5823529411764706</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L21">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="M21">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1334,21 +1307,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>142</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5813953488372093</v>
+        <v>0.6292428198433421</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>241</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>241</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1360,21 +1333,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.5525423728813559</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L23">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="M23">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1386,47 +1359,47 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24">
+        <v>0.550561797752809</v>
+      </c>
+      <c r="L24">
+        <v>49</v>
+      </c>
+      <c r="M24">
+        <v>49</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>40</v>
-      </c>
-      <c r="K24">
-        <v>0.5393258426966292</v>
-      </c>
-      <c r="L24">
-        <v>48</v>
-      </c>
-      <c r="M24">
-        <v>48</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>41</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5188284518828452</v>
+        <v>0.5491525423728814</v>
       </c>
       <c r="L25">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="M25">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1438,21 +1411,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.4811715481171548</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1464,21 +1437,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>25</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4871794871794872</v>
+        <v>0.453125</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1490,21 +1463,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.46875</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1516,47 +1489,47 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29">
+        <v>0.4230769230769231</v>
+      </c>
+      <c r="L29">
+        <v>33</v>
+      </c>
+      <c r="M29">
+        <v>33</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>45</v>
-      </c>
-      <c r="K29">
-        <v>0.4615384615384616</v>
-      </c>
-      <c r="L29">
-        <v>30</v>
-      </c>
-      <c r="M29">
-        <v>30</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>35</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.4383561643835616</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1568,21 +1541,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.1076555023923445</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="L31">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1594,21 +1567,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>373</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.1033653846153846</v>
+        <v>0.1196172248803828</v>
       </c>
       <c r="L32">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M32">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1620,151 +1593,151 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.09182530795072788</v>
+        <v>0.1081730769230769</v>
       </c>
       <c r="L33">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="M33">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="N33">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>811</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.06888888888888889</v>
+        <v>0.09955257270693513</v>
       </c>
       <c r="L34">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="M34">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="N34">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>838</v>
+        <v>805</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.04938271604938271</v>
+        <v>0.07103218645948946</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="M35">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>616</v>
+        <v>837</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.04067321178120617</v>
+        <v>0.04728950403690888</v>
       </c>
       <c r="L36">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="M36">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="N36">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>2052</v>
+        <v>826</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.03579676674364896</v>
+        <v>0.04160246533127889</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M37">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>835</v>
+        <v>622</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.02063850370848113</v>
+        <v>0.03230337078651686</v>
       </c>
       <c r="L38">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M38">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N38">
         <v>0.91</v>
@@ -1776,33 +1749,33 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>3037</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.008780181875195987</v>
+        <v>0.02229402261712439</v>
       </c>
       <c r="L39">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="M39">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="N39">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="O39">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>3161</v>
+        <v>3026</v>
       </c>
     </row>
   </sheetData>
